--- a/medicine/Pharmacie/Tafluprost/Tafluprost.xlsx
+++ b/medicine/Pharmacie/Tafluprost/Tafluprost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tafluprost, est une molécule utilisée comme collyre dans certains glaucomes. Il est vendu entre autres sous la marque Zioptan[1].
+Le tafluprost, est une molécule utilisée comme collyre dans certains glaucomes. Il est vendu entre autres sous la marque Zioptan.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s’agit d’un analogue de la prostaglandine dont on pense qu’il agit en augmentant l’écoulement du liquide aqueux de l’œil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit d’un analogue de la prostaglandine dont on pense qu’il agit en augmentant l’écoulement du liquide aqueux de l’œil.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tafluprost est un médicament utilisé pour traiter le glaucome à angle ouvert et l'hypertension oculaire[1]. Il est utilisé comme collyre[1]. Ce médicament peut être utilisé seul ou avec d'autres médicaments[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tafluprost est un médicament utilisé pour traiter le glaucome à angle ouvert et l'hypertension oculaire. Il est utilisé comme collyre. Ce médicament peut être utilisé seul ou avec d'autres médicaments.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent une rougeur des yeux, des démangeaisons, une croissance des cils et une vision floue[1] ; d'autres effets secondaires peuvent inclure l'iritis et l'œdème maculaire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent une rougeur des yeux, des démangeaisons, une croissance des cils et une vision floue ; d'autres effets secondaires peuvent inclure l'iritis et l'œdème maculaire.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2012 et au Canada en 2014[1],[2]. Aux États-Unis, cela coûte environ 150 dollars américains  par mois à partir de 2021[3]. Au Canada, il était moins rentable que le bimatoprost en 2020[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2012 et au Canada en 2014,. Aux États-Unis, cela coûte environ 150 dollars américains  par mois à partir de 2021. Au Canada, il était moins rentable que le bimatoprost en 2020.
 </t>
         </is>
       </c>
